--- a/BugTest/Ratings test_AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
+++ b/BugTest/Ratings test_AHP_Ratings_Lunch/lunchModel_Ratings_Results.xlsx
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1284,6 +1285,62 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
     <cfRule type="dataBar" priority="1">
@@ -1370,6 +1427,48 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
     <cfRule type="dataBar" priority="1">
@@ -1484,6 +1583,62 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31">
     <cfRule type="dataBar" priority="1">
@@ -1564,6 +1719,48 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="43">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1968,7 +2165,7 @@
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr"/>
@@ -2415,7 +2612,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="128">
+  <dataValidations count="200">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
@@ -2582,6 +2779,222 @@
       <formula1>=rating_scales!A29:A31</formula1>
     </dataValidation>
     <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A29:A31</formula1>
     </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
